--- a/丹羽FM.xlsx
+++ b/丹羽FM.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第173回ニュース＆お金が下ろせない ！" sheetId="2" r:id="rId2"/>
+    <sheet name="第172回ニュース＆気象を使った言葉" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="340">
   <si>
     <t>第173回ニュース＆お金が下ろせない ！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,6 +844,541 @@
   </si>
   <si>
     <t>じじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.25</t>
+  </si>
+  <si>
+    <t>第172回ニュース＆気象を使った言葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通規制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうつうきせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都圏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅとけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>観客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんきゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開催</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これに伴い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これにともない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予定されていた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よていされていた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉄道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てつどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨時列車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りんじれっしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取りやめになっています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周辺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうへん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今のところ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまのところ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>値上げに世に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねあげにより</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひるま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通量を減らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうつうりょうをへらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねらいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これにより</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんしゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スマーズニ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マイカー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般乗用車で、社用車も含まれます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流関連</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶつりゅうかんれん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福祉車両</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふくししゃりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通機関</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうつうきかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有無にかかわらず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用されます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てきようされます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういった気象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にちじょうせいかつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんな風に使われているかの紹介です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のないような話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話って言う意味なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何の根拠「こんきょ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひじょうに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それって想像の世界だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みたいな話をしている人もいると思うんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういう場合に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんていう風に使ったりします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていう気持ちはあると思うんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>続いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つづいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんな風に使っていきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなような意味なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんていう言い方をしたりするんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どこに行ったかわからなくなってしまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐らく都合「つごう」が悪いことがおこって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消したっていうことなんですう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうすぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨がふるかもしれないっていう風に思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それと同じように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんだか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というような意味なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな時に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎょうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牽引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんいん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注目されている人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活躍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かつやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういう人を指して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんな風に使うんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時代を席巻する「せっけん」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賞賛される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賞賛される勢い「いきおい」がすごい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは別にいい意味ばっかりではありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とにかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのていど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷を落とされたんだって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごく怒られたっていう意味なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちなみに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順番に並べた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのとても怖い存在「そんざい」として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そう言う言葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小さい子供に対して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういう風に言ったりしますか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペットを飼っている方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていう風に言わないで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>するみたいなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていう風に言うそうです</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +1386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +1425,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -917,7 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +1471,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1208,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
@@ -1244,12 +1791,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" location="'第173回ニュース＆お金が下ろせない ！'!A1" display="第173回ニュース＆お金が下ろせない ！"/>
+    <hyperlink ref="C3" location="'第172回ニュース＆気象を使った言葉'!A1" display="第172回ニュース＆気象を使った言葉"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1257,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2110,4 +2676,612 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/丹羽FM.xlsx
+++ b/丹羽FM.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="第173回ニュース＆お金が下ろせない ！" sheetId="2" r:id="rId2"/>
-    <sheet name="第172回ニュース＆気象を使った言葉" sheetId="4" r:id="rId3"/>
+    <sheet name="第168回ニュース＆サロネーゼって何 " sheetId="10" r:id="rId2"/>
+    <sheet name="第169回ニュース＆高齢者ドライバー" sheetId="8" r:id="rId3"/>
+    <sheet name="第170回ニュース＆守る 謎マナー" sheetId="9" r:id="rId4"/>
+    <sheet name="第173回ニュース＆お金が下ろせない ！" sheetId="2" r:id="rId5"/>
+    <sheet name="第172回ニュース＆気象を使った言葉" sheetId="4" r:id="rId6"/>
+    <sheet name="第171回ニュース＆NHKを知ろう" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1161">
   <si>
     <t>第173回ニュース＆お金が下ろせない ！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1379,6 +1384,3304 @@
   </si>
   <si>
     <t>っていう風に言うそうです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.26</t>
+  </si>
+  <si>
+    <t>第171回ニュース＆NHKを知ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内定率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ないていりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公務員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうむいん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運営</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんえい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らいしゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時点で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じてんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぴょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染拡大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんせんかくだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とされたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同時期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうじき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やや低い水準で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ややひくいすいじゅんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定志向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんていしこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公務員を目指す傾向「けいこう」にあること</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要因「よういん」とみられています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>関東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わりあい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほぼ横ばいで推移「すいい」している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぽう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大都市「だいとし」を抱える「かかえる」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近畿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２０２０年卒から8.6ポイント増「ぞう」の18.8％でした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それぞれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭文字「かしらもじ」をとったものです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このnhkというのは国営放送だと思われがちなんですが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正しく「まさしく」は公共放送「こうきょうほうそう」です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なにが違うのでしょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と同じようなものです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受信料「じゅしんりょう」を取るという形で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きぎょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>広告「こうこく」料金をもらって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益「りえき」を得ている「えている」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊法人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくしゅうほうじん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊法人という扱いになっています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一応</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予算がでているんですが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予算から考えると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうふきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>およそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国からの交付金はおよそ0.5％程度ということになっています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やはり皆さんからの受信料ということになるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なるべく＝できるだけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定の企業の名前や商品名などをなるべく出さないようにして放送しています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは徹底「てってい」されているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渋谷区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しぶやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渋谷駅から歩いて大体十五分ぐらいのところにあります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しきち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かなり大きな敷地になっていまうｓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また全国に支局を持っています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そしてもう一つが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チャンネル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このほか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一部海外で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちぶかいがいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外に住んでいる人に向けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多言語で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たげんごで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本のことを知ってもらうために放送しているものなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星放送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えいせいほうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿論「もちろん」一切ＣＭは放送されません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この受信料なんですけども、ちなみにいくらなのかちょっと紹介しましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一ヶ月「いちかげつ」１１１円です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料金がちょっと安いようなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この受信料を巡って「めぐって」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近年「きんねん」では</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々な意見「いけん」がでているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この料金ですが皆さんは高いと感じますか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうなんでしょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほぼ成り立っている「なりたっている」考えれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>収入源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうにゅうげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チャンネルの運営「うんえい」をしていくのが非常に難しくなります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所謂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いわゆる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年間で「いちねんかんで」今はおよそ７０００億円ほどと言われいるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これかなりの金額「きんがく」です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この番組を見ているか見ていないかは関係なく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置「そうち」を持っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受信料の契約「けいやく」をしなれけばならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というふうにさだめられているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定「さだ」められている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的には家にテレビがある人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受信契約「じゅしんけいやく」を結ぶ「むすぶ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいしょうしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象者となるです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうやって調べているかはちょっとよくわかりませんｌが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある日突然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるひとつぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ピンポン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徴収する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうしゅうする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この受信料を徴収する人が来たりするんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というふうに係の人が来るんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行の引き落とし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 银行扣款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いろんな払い方があるんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种各样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵便局とかそういったところで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受信料を受け取りに来た係の人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことが多いんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚实的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素直に「そなおに」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そして何度も何度も家に訪問「ほうもん」して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やってきたりして苦情「くじょう」が結構「けっこう」あったりするんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よく聞くのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全く知らなくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは何か騙「だま」されてるんじゃないか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詐欺「さぎ」なんじゃないか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhkが映「うつ」らないようになっていれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>納得「なっとく」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能理解，能体会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すでに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それはそれでちょっと納得「なっとく」ができるんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのお家の人はでもみてませんからというふうに言っているわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とても不公平「ふこうへい」な感じがするんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こういった意見「いけん」も出ているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道料金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいどうりょうきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これらも公共料金「こうきょうりょうきん」なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>払っていなくても止められるということはないんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここに矛盾があるんじゃないかという意見が多く出ているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうできるようになったんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>が技術的に可能になりました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>という意見を強くいっているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テレビ離れ「はなれ」が進んでいるといわれています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうなると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネット環境「かんきょう」に接続「せつぞく」できる人は</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見ていても見ていなくても関係なく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちなみに我が家「わがや」はです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行引き落としで払いをしています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんか矛盾があります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実際いるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっとそこまではわからないんですけど、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのような状況「じょうきょう」なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一悶着起こしきる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちもんちゃくおこしきる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起一场纠纷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每篇大概1个半小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">いろんな
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种各样的、形形色色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.27</t>
+  </si>
+  <si>
+    <t>第170回ニュース＆守る 謎マナー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みつびし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振り込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふりこみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手数料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てすうりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>値下げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねさげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手数料を値下げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他行への振り込み手数料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と明らか「あきらか」にしました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三万円以上は１００円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三万円未満は６６円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それぞれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き下げます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきさげます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎんこうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決済手数料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっさいてすうりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き下げを反映したもので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新たな「あらたな」手数料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メガバンク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（英）megabank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并产生的大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手数料は手続き方法によって異なり「ことなり」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月以降「いこう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店頭なら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんとうなら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネット経由「けいゆ」なら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２２０円に値下げとなります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行内での振り込み手数料に変更「へんこう」はありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謎マナー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なぞまなー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マナー大国「たいこく」なんていう言い方をされることがあります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々な場面で「ばめんで」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もう一つリールという言葉がありますが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これ似「に」ていますけれどもちょっと違います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルールっていうのは所謂「いわゆる」きそくのことですので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペナルティ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もしそれを破るとペナルティ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰則「ばっそく」があったりするわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>またルールの場合は前提「ぜんてい」として守るのが当たり前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守らないのはとても悪いこと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というふうに思っている方「かた」が多いと思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事実「じじつ」その通りです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并（不），特别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マナーを守らなかったからといって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何か罰則「ばっそく」があるわけでもありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通「きょうつう」の決「き」まりとしては</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんかちょっと弱いです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>営む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いとなむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营，办，从事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活を営む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会生活を営む上で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スムーズに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過ごす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽しい夏休みを過ごす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度过愉快的暑假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気持ちよくスムーズに過ごせるという観点「かんてん」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このマナーが生まれ「うまれ」たんだと思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ところが最近は</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謎マナーなんて言われるものが結構「けっこう」あって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クエスチョンマーク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クエスチョンマークをつけたくなってしまうようなものがあるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事の時のマナーとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠婚葬祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんこんそうさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社でお客様、取引先「とりひきさき」をお迎えするとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるいはそちらにご挨拶に行くとき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意識「いしき」している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会人「しゃかいじん」としてのマナー色々なあると思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは本当に必要なものなのだろうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハンコ文化がまだ結構残っています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるプロジェクトの責任者「せきにんしゃ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部で三人いたとします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一番下は主任「しゅにん」というふうになっていて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういった時に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうすると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真っ直ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まっすぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直，笔直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まっすぐそのまま押す「おす」のではなくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少し部長の方に傾け「かたむけ」てハンコを押すんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それもです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハンコがまるでお辞儀「おじぎ」をしているようにみえます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは目上「めうえ」の立場「たちば」にある人に敬意「けいい」を表す「あらわす」という意味で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんもく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默，默不作声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黙のうちに守られているマナーだったりするわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんかちょっとなぜこんな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謎のマナーが出てきたのか理解できないです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新型コロナの流行で「りゅうこうで」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会の生活も随分「ずいぶん」変わりました「かわりました」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マスクをして生活することが当たり前になったり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オンラインで会社の会議を行うなどというも増えました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうなった時に登場「とうじょう」したのが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がんらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元来いろんなところで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸透「しんとう」している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握「はあく」しているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マスクをつけるとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オンラインで会議をするなどの新しい行動「こうど」に対しては</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何が正しいマナーなのかを把握している人は少ないです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というよりも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚实，实诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正直「しょうじき」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もともと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不赔不赚；同原来一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元々何が正しいマナーなのかまだ決まっていないというのが正直なところです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そこで最近言われているのが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お葬式「そうしき」の時などは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒装束で「くろしょうぞくで」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常識「じょうしき」とされています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お話しが出てきたんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まじえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掺杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この問題に私情「しじょう」を交えてはいけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役職「やくしょく」が偉い人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部長も交えて十人でオンライン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がめん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面が大体十分割されて「かつされて」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顔が映る「うつる」ようになります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部長のその位置「いち」なんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下の段「したのだん」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端っこ「はしっこ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边上，角落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下の段の一番端っこだったりすると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失礼なんじゃないか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まあこういった考え方があって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役職が上の人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映るように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつるように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配慮「はいりょ」しなければならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スタンバイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備「じゅんび」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬鹿馬鹿しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかばかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギクシャクする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不圆滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上司「じょうし」がログインしてくるよりも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前に既に「すでにスタンバイをしてまっていて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にゅうしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんていうことが最近よくいわれているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これってどう思いますか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指導「しどう」している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講師「こうし」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講師っていう仕事の人達「ひとたち」なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講師の資格取得「しかくしゅとく」というのがあるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認定「にんてい」している資格なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講座「こうざ」を受ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資格「しかく」を得る「える」ことができるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なにかマナーについて困った時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんな時はどういうふうにするのが正しいのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷った時に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生に聞くのがよいとされているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妥当な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だとうな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近疑問視「し」されているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私が気になったのです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あつで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゃくよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体調「たいちょう」を壊してしまいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これがマナーあるというふうに一体「いったい」誰が決めたんでしょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生に言われてしまうと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうしていない人はなんか非常識のように見られてしまいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元々何ために必要なものなんだろうかと考えてみると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっと改善した方がいいマナーがたくさんあるような気がします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お客様とか取引先の会社に行った時に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お茶とかを出して「だして」いただくことがあります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特意，好（不）容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゃくに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっかく出していただいたのに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口をつけないっているのも逆に失礼なんじゃないかなって思うんですけど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのもちろんマナーを守ることは大事「だいじ」なんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一番大事なのはやはり表面「ひょうめん」的なマナーではなくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中身です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>内容（物事の内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>実質）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕らわれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受拘束，受限制，局限于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先入観「せんにゅうかん」に捕らわれる「とらわれる」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とらわれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局限于先入之见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんだか意味のわからないマナーにとらわれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もう少し肩の力「かたのちから」を抜いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活できると何かいいなぁと思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第169回ニュース＆高齢者ドライバー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>総人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうじんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>総務省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうむしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国勢調査</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こくせいちょうさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぴょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国人を含む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふくむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調査</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八千人減りました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へりました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減少率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんしょうりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国連</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こくれん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推計によると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界で１１番目となり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばんめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひかくかのう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１９５０年以降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初めて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入りませんでした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいりませんでした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域別に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちいきべつに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見ると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口偏在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんこうへんざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進みました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すすみました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初の減少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はつのげんしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減少を記録します「きろくします」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅かに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わずかに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点点。相差无几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高齢者ドライバー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうれいしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車の運転免許</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うんてんめんきょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運転免許をもっています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１８歳になると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免許雨を取得「しゅとく」することができまうｓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車がないと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不便な地域で生活している人達「ひとたち」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高校を卒業すろと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教習所「きょうしゅうじょ」に通って「かよって」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>という人も結構「けっこう」多いんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免許を取った「とった」後は「のちは」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車を購入して「こうにゅうして」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どこに行くにも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな生活を送って「おくっｓて」いる人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決して「けっして」少なくはありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊張「きんちょう」しますけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎日運転して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何年も経って「たって」慣れてくると「なれてくると」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車を運転することは自分の手足「てあし」を動かす「うごかす」のと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まるで同じように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由自在に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゆうじざいに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動かす「うごかす」ことができるようになるようです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなに長い時間慣れ「なれ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齢が上がっていて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この年齢までしか運転できませんという規則「きそく」がないんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですから極端な「きょくたんな」ことを言えば「いえば」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人「ほんにん」が運転が出来れば「できれば」いつまでも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車に乗ることができるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初心者「しょしんしゃ」よりも随分「ずいぶん」と運転に慣れていますから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういう意味では初心者の運転よりは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定していると考えるというのも一理「いちり」あると思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただしです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齢が上がってくると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々な状況「じょうきょう」判断「はんだん」が鈍ったり「にぶったり」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認知能力「にんちのうりょく」が低く「ひくく」なったり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々なことに対しての反応「はんのう」も遅くなったりします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうお考えると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本での高齢者ドライバーによる事故「じこ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これがよく報道「ほうどう」されているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほとんど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殆どの場合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほとんどのばあい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブレーキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加 速踏 板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アクセル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝倒车</t>
+  </si>
+  <si>
+    <t>トランク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　引擎盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボンネット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煽って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あふって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>催动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏み間違えてしまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事故が起こる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こういった状況「じょうきょう」なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駐車場にはいります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店に突っ込んで「つっこんで」しまうとかです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの病院なんかでもそういう事故があって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人はブレーキを踏んだつもりだったんだけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それで死者「ししゃ」や怪我「けが」人が出「で」たっていう事故、あるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうしたことから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのマークをつける方「かた」がいいよっというふうになっているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かれは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯葉マークなんて嫌な言い方「いいかた」をされていたんですけど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗いオレンジみたいな色だったです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今新しいマークになりまして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四葉「よつば」マークになったんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いずれにしても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任何情况下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうするとそれを見た人が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この車には高齢者ドライバーが乗っているから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きをつけようというふうになるわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無理な追い越しをしたりですとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういうこともないです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その車が少しなにか迷っているようなことがあったとしても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会耐心等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根気「こんき」よく待ってあげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車に道を譲って「ゆずって」あげるとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういった気遣い「きづかい」をみんなができるように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちなみに初心者「しょしんしゃ」の場合「ばあい」には</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初心者「しょしんしゃ」マークというのがあります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免許を取得「しゅとく」してから一年間「かん」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こういうふうになっているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さて、話を高齢者ドライバーに戻しましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっこん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の問題が議論「ぎろん」されるようになって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車を運転していたんだけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分が万が一事故を起こしてしまったら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本当に大変だということで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というひともいるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と説得「せっとく」をされて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人も出てきたんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少しずつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこしずつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点一点地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なるべくだったら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可能的话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免許を返上「へんじょう」したほうがいいんじゃないの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>という意見が強くなってきたような感じなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていうひともいるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これにはあのいろんな理由がありますが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主な「おもな」理由としては大体「だいたい」ふたつあるんｌです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一つ目はです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの車を運転して長いこと暮らしてきた人ぅていうのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もう車に乗ることが生活の一部になっているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用事を済ませるだけけに車を使うのではなくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいしゅつして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活の範囲「はんい」が狭まって「せばまって」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんとなく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总觉得，不由得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気持ちもなんとなく暗くなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車に乗ることは自分の中のストレス解消「かいしょう」であったり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気分転換「きぶんてんかん」だから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな風に考える人がいるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そしてもう一つの理由なんですが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうなると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普段の買い物とか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病院に行くことが大変不便「ふべん」になるの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実際問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっさいもんだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていうひとがいるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都会「とかい」で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利な生活をしている人にはあまり理解できないかもしれませんｌが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店が全然周りにないとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病院も車で３０分とか一時間とか経ったところ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういった暮らしをしている人って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなに珍しくはないんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうしますと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちいち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐一，逐个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていう人達「ひとたち」も多く存在「そんざい」するんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうなってくると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というふうにはいえなくなってしまいますようね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かすかな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かすかな希望の光「ひかり」として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待「きたい」されているの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝手に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これが当たり前になるとはいわれています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動運転が当たり前の世の中がやってくると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういった悩み「なやみ」に直面「ちょくめん」する人達もいなくなるというわけねんｌです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮「う」かび上がってきあｍす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第168回ニュース＆サロネーゼって何 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サロン＝沙 龙</t>
+  </si>
+  <si>
+    <t>フラワーアレンジメント＝插花设计</t>
+  </si>
+  <si>
+    <t>月謝「げっしゃ」＝毎月的学費</t>
+  </si>
+  <si>
+    <t>しがらみ＝障害物「しょうがいぶつ」</t>
+  </si>
+  <si>
+    <t>コンタクトを取る＝接触「せっしょく」</t>
+  </si>
+  <si>
+    <t>割に合わない「わりにあわない」＝不合理「ふごうり」</t>
+  </si>
+  <si>
+    <t>巻「まき」き上げる＝攫う「さらう」</t>
+  </si>
+  <si>
+    <t>ウーバー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配達員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいたついん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己負担で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じこふたんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚生労働省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうせいろうどうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諮問機関</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しもんきかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策審議会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいかくしんぎかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部会で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶかいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理を宅配「たくせい」する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>労災保険「ろうさいほけん」が利用できる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別加入制度の対象「たいしょう」とすることを了承しました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了承しました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうしょうしました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚労省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あつろうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正「かいせい」を経て「へて」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保険料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほけんりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入できるようになります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フードデリバリーサービス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協会「きょうかい」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協会によると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>およそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概，概略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人事業主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こじんじぎょうぬし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人事業主として働く場合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎょうむちゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうつうじこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分に補償「ほしょう」されないことが問題となっていました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補償「ほしょう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月以降「いこう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自ら「みずから」加入「かにゅう「</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自ら加入を申し込んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保険料を負担「ふたん」すれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治療費「ちりょうひ」を支給「しきゅう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休業「きゅうぎょう」補償がうけられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サロネーゼ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていう言葉聞いたことありますか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これはどういう意味かといいますと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主に主婦「しゅふ」の方などが自宅「じたく」をサロンとして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開放して「かいほうして」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そこでいろいろな習い事「ならいごと」を教えている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな主婦の人のことを指「さ」すんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必需品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々なものがあるんですがやはり昔から定番の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パン教室などもありますし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近流行りの「さいきんはやりの」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手作り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てづくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とにかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之；姑且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とにかくやってみよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多岐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題が多岐にわたる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题涉及许多方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及多方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多岐にわたって様々な習い事が存在「そんざい」するんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうした活動「かつどう」をするとこの目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意味というのは一体何でしょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚「けっこん」した後「のち」主婦になって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家のことをやったり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子育て「こそだて」をしたりしている人達っていうのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供に手がかからなくなると自分の時間ができていいんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やはり自分でちょっとお小遣い「おこづかい」も欲しいし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いろんな理由があって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少しお金を稼ぎ「かせぎ」たいなっていうふうに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思うようになるわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただ十年ぐらいの間「あいだ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずっと社会との繋がり「つながり」がなかった主婦の人というのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然冷不防马上就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会に出てもあまりできる仕事がなかったり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現実問題「げんじつもんだい」として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面接でも受かる可能性がひくかったりするんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単純労働</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんじゅんろうどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単純労働をするっていうことが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分にはできないんじゃないかっていう自信のなさなどなどから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辿り着く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たどりつく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好不容易走到，挣扎走到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>という発想「はっそう」にたどり着くわけです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまたま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然，碰巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまたま運「うん」がよかったわけです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お菓子作りが得意「とくい」な人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それなりに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就那样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予算の関係で中止したまま、それなりになっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうすればもうスタートなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旦那さん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんなさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旦那さんも会社に行っていますし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人きり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤身一人；一个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家の中に自分一人きりです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生徒さんを招い「まねい」て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色々なことをおしえるのには好都合「こうつごう」なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何と聞くところによると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構いっぱいいるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募集する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼしゅうする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のようなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理教室を開いて「ひらいて」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近所だ「きんじょだ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな風に月謝をもらって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想を言えば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分の好きなことを仕事にできて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかもお金が自分の自由になるなんて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんだかとっても理想的のようなきがします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいことばかりではないです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんといっても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管怎么说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんといっても大変なのは生徒さん集めなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今言ったように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就像我说的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また途中でやっぱり教室を抜けたいとおもったとしても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空いた時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいたじかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうきゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネット環境さえ整って「ととのって」いれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんなところにいる人とでもコンタクトを取ることができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人が随分と増えてきたんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣伝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんでん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣伝をしなければ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私というひとがいること</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これが問題になるわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>様々な方法を教えるセミナーなどもおこなわれているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お茶会「おちゃかい」なんていうのも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻繁に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひんぱんに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんていうのも頻繁におこなわれているんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この費用が結構たかいんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうじき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の人たち平均的「へいきんてき」な一ヶ月収益「しゅうえき」です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コストなどを除いた「のぞいた」金額「きんがく」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均で一万円ぐらいだそうです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何かわりにあわないです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でもよく考えてみれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しろうと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素人の人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継続的に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいぞくてきに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あくまでも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终究，最终</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あくまでもこれは私の個人的「こじんてき」な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考えなんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>が多いんじゃないかなっていう感じなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また誰でも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好きなことでお金を稼ぎ「かせぎ」たいというのは理想だとは思うんですが</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +4689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,12 +4729,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3D454C"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1461,7 +4771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,9 +4781,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1755,10 +5069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
@@ -1803,16 +5118,58 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C4" s="5"/>
+      <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="5"/>
+      <c r="A5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>978</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" location="'第173回ニュース＆お金が下ろせない ！'!A1" display="第173回ニュース＆お金が下ろせない ！"/>
     <hyperlink ref="C3" location="'第172回ニュース＆気象を使った言葉'!A1" display="第172回ニュース＆気象を使った言葉"/>
+    <hyperlink ref="C4" location="'第171回ニュース＆NHKを知ろう'!A1" display="第171回ニュース＆NHKを知ろう"/>
+    <hyperlink ref="C5" location="'第170回ニュース＆守る 謎マナー'!A1" display="第170回ニュース＆守る 謎マナー"/>
+    <hyperlink ref="C6" location="'第169回ニュース＆高齢者ドライバー'!A1" display="第169回ニュース＆高齢者ドライバー"/>
+    <hyperlink ref="C7" location="'第168回ニュース＆サロネーゼって何 '!A1" display="第168回ニュース＆サロネーゼって何 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1821,6 +5178,2876 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F277"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B231" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:E322"/>
+  <sheetViews>
+    <sheetView topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="9.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C146" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>887</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B275" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B281" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B283" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B295" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B297" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B299" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:F368"/>
+  <sheetViews>
+    <sheetView topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B272" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B275" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B284" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B323" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B337" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B339" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B341" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B343" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B345" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B348" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B351" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B355" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B356" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B359" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B360" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B363" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B366" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B368" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,12 +8905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3284,4 +9512,924 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B2:G292"/>
+  <sheetViews>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B218" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/丹羽FM.xlsx
+++ b/丹羽FM.xlsx
@@ -4,17 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="第168回ニュース＆サロネーゼって何 " sheetId="10" r:id="rId2"/>
-    <sheet name="第169回ニュース＆高齢者ドライバー" sheetId="8" r:id="rId3"/>
-    <sheet name="第170回ニュース＆守る 謎マナー" sheetId="9" r:id="rId4"/>
-    <sheet name="第173回ニュース＆お金が下ろせない ！" sheetId="2" r:id="rId5"/>
-    <sheet name="第172回ニュース＆気象を使った言葉" sheetId="4" r:id="rId6"/>
-    <sheet name="第171回ニュース＆NHKを知ろう" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId8"/>
+    <sheet name="第160回ニュース＆三つ子の魂百まで・前編" sheetId="18" r:id="rId2"/>
+    <sheet name="第161回ニュース＆三つ子の魂百まで・後編" sheetId="17" r:id="rId3"/>
+    <sheet name="第162回ニュース＆三つ子の魂百まで・番外編" sheetId="16" r:id="rId4"/>
+    <sheet name="第163回ニュース＆日本の畳" sheetId="15" r:id="rId5"/>
+    <sheet name="第164回ニュース＆猫大好き" sheetId="14" r:id="rId6"/>
+    <sheet name="第165回ニュース＆手を使った言葉" sheetId="13" r:id="rId7"/>
+    <sheet name="第166回ニュース＆マウンティングする人達" sheetId="12" r:id="rId8"/>
+    <sheet name="第167回ニュース＆最近ハマっている食べ物" sheetId="11" r:id="rId9"/>
+    <sheet name="第168回ニュース＆サロネーゼって何 " sheetId="10" r:id="rId10"/>
+    <sheet name="第169回ニュース＆高齢者ドライバー" sheetId="8" r:id="rId11"/>
+    <sheet name="第170回ニュース＆守る 謎マナー" sheetId="9" r:id="rId12"/>
+    <sheet name="第173回ニュース＆お金が下ろせない ！" sheetId="2" r:id="rId13"/>
+    <sheet name="第172回ニュース＆気象を使った言葉" sheetId="4" r:id="rId14"/>
+    <sheet name="第171回ニュース＆NHKを知ろう" sheetId="6" r:id="rId15"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1701">
   <si>
     <t>第173回ニュース＆お金が下ろせない ！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4684,12 +4692,2250 @@
     <t>好きなことでお金を稼ぎ「かせぎ」たいというのは理想だとは思うんですが</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2021.8.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第167回ニュース＆最近ハマっている食べ物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユガ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一石二鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっせきにちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内生産量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こくないせいさんりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年連続で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうねんれんぞくで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高を更新しています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改良に「かいりょう」加えて「くわえて」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>が広がっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協会に「きょうかい」ようると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さくねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この十年で約二倍に増えました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要拡大「じゅようかくだい」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要拡大が続く背景「はいけい」には</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふうみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組み合わせたり料理に活用したりと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハマっているっていう表現「ひょうげん」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この意味はです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とても好きになっているとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごく魅力を感じていますし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象として人でも、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それからあの行動「こうどう」、行為「こうい」なんかなんでも使えるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆががすごく好きなんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなような意味なんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さあ今日はですね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人的「こじんてき」ではありますが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まず一つ目です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というのは存在「そんざい」していますが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんでこんなに味わいが違うのかわかりませんｌが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構好きでです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構前からあるんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなにちゅうもく「ちゅうもく」していなかったんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていう記憶「きおく」がほとんどありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふつうない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただ最近になってちょっとです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使っていろん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作る機会「つくるきかい」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作る機会がありまして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そこで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思い出して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作ってみたんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そしたらなんと意外「いがい」と美味しくです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全,都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すっかりはまってしまいました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単純に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんじゅんに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どちらも美味しいんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しつおん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷たい状態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つめたいじょうたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挟んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はさんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうぜん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感じになりますけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塗って食べるっていう方法もあるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いずれにしても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反正，总之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是，但是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定番中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必需品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていばんちゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっと自分でも驚きでしたた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おどろき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まだ食べたことがないという方、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡単ですのでぜひおためしください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>続いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醤油「しょうゆ」を加えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゃんと清潔「せいけつ」にして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その中に入れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二週間ぐらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしゅうかんぐらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出来上がります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できあがります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旨味「うまみ」が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごくあの深くなって美味しいんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べたいなと思った時にすぐに家にあるとは限りません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心配する人も多いでしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのとても良いアイスを最近見つけました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうするともう完全に「かんぜんに」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるていど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凍庫に入れると当然「とうぜん」のことながら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バナナが凍ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このバナナが凍ったらできあがりです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かていよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よく家庭用にもありますが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの意外とこれ美味しいことになるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お好みで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くふう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次第</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工夫次第で色々なと楽しむことができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第166回ニュース＆マウンティングする人達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠回し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委婉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副賞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふくしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小 时工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚痴「ぐち」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牢骚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗に「あんに」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗中，私下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>災害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文部科学省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もんぶかがくしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この頃は天気予報があまり当たらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近天气预报不太准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼の言うことはよくあたっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他说得正对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この日本語に当たる英語はなんですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于这句日语的英语是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五つで２００円だからひとつ４０円に当たります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五个是二百日元，所以一个合四十日元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この家はよく日が当たる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这所房子阳光很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電灯「でんとう」の光「ひかり」が顔に当たる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电灯的光照在脸上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接本人に当たって聞いてみよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接向本人问了确认一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞職「じしょ」に当たって調べる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查字典看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当番「とうばん」にあたる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指派到当值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氾濫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんらん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河川が氾濫した場合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸水する可能性が高い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计，设想，假想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想定「そうてい」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸水想定区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地滑り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じすべり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地滑りなどの恐れがある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>災害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立地「りっち」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工农业的布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>満２０歳をもって成年「せいねん」とする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以满二十岁作为成年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この案を可「か」とする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此方案得到通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公務執行妨害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうむしっこうぼうがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このような言動は公務執行妨害とする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AとBが等しいとする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出かけようとするとき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正打算出门的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調査結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうさけっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調査結果を発表します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうりつで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>義務「ぎむ」づけられている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくほ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避難</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひなん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作成「さくせい」します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避難確保計画を作成していないなど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>災害に対する備えが「そなえが」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じったい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不十分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふじゅぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不十分な実態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判明します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确，弄清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不十分な実態も判明します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計画を整備していない学校が多いことについて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣旨「しゅし」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣旨；宗旨；主要内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この文章「ぶんしょう」の趣旨はよくわからない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这篇文章的主要内容不太明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸透「しんとう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>が浸透「しんとう」していない可能性がある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周知「しゅうち」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは周知の事実だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是众所周知的事实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つうち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徹底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てってい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>図ります「はかります」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图谋；策划；谋求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜「べんぎ」を図る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替人着想；给人方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マウンティングする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すうねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この言葉「ことば」ここ数年で随分「ずいぶん」使われるようになりました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一体どういう意味かといいますと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優れている「すぐれている」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出色，优越，优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分の方が相手よりも優れている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上であるというようなこと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誇示する「こじする」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言動「げんどう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誇示する言動のことなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マウンティングするっていう言い方もあるし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マウントを取るなんていう言い方もするんですが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これ何も同じ意味です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんなことかと言いますと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達同士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともだちどうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達なんかでおしゃべりをしていて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある人が会社であった出来事「できごと」を話していたとします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このあいだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>営業成績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えいぎょうせいせき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごくよかったので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表彰「ひょうしょう」されて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このふくしょうとして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賞金「しょうきん」一万円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボーナスをもらったんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と話したとしますようね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうしたら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別の友達がそれに対して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんてもう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>３期「き」連続「れんぞく」で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表彰「ひょうしょう」されてるんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんなふうにいうわけです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうすると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初に「さいしょに」話をした人よりも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後から「ごから」話をした人の方が成績「せいせき」も金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額も上って「のぼって」いうことになりますので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要するに「ようするに」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之，总归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更,更加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっと右へよってください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请再靠右边一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再快点儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっと速く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっと多くの人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早川は英語がうまいが、北原はもっとうまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早川的英语很好,但北原比他更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっと理解を深める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步加深了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お菓子をもっとください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再给我一点点心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もっと勉強しなければなりませんよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要更加用功才行啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲しければもっともっていくがいい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢的话,你可以多拿些走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごいかもしれないけれども、私の方がもっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あなたより上よ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていうことになりますよね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自覚「じかく」をして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言っている本人は自覚をして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相手よりも自分の方が上であることをたくさんアピールして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やろうという気持ちで言っているのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それとも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是，或者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無意識</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むいしき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんとなく無意識に言っているのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それは人によると思いますのでよく分かりませんが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こういった状況「じょうきょう」に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言われた方の人はですね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんか、マウントを取られた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの人いつもマウンティングしてくるよね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな感じに使うんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行為「こうい」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マウントするという行為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰にとってもされた方の人は嬉しい気持ちはしないですようね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今の話のように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごくわかりやすいモノっていうのもあるんですけど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それともそうじゃないのかっていうのがわかり難い「がたい」ものもあったりするわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主婦　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅふ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あつまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お茶会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おちゃかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人の人が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その人は主婦「しゅふ」なんだけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パートにもでていて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子育て「こそだて」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いろいろ両立「りょうりつ」しなくちゃいけなくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大変だとしますよね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日パートで残業代になっちゃって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家に帰るのがいつもより一時間遅くなっちゃったから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕食「ゆうしょく」作ったら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不機嫌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不高兴，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふきげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不機嫌な顔をする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人を不機嫌にする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现出不高兴的神色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使人扫兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供もお腹が空き「あき」すぎて不機嫌になるし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旦那さん「だんなさん」も不機嫌になって本当に大変だったの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんな時ぐらい旦那さんが夕食の用意「ようい」をしてくれてもいいよね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みたいな感じで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何気ない愚痴ですよね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別にあんまり大きな意味はない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専業主婦「せんぎょうしゅふ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全然パートとかお仕事、一切「いっさい」していない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの子育てをしながら家のことだけをやっているというひとがいたとして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その人の発言「はつげん」が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家のこととパートと両立「りょうりつ」なんて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私はもう絶対に無理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今は子供が小さいから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手一杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竭尽全力，尽量；没有空闲，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手一杯に市場「しじょう」を広げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全力扩大市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注文「ちゅうもん」をこなすだけで手一杯だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光熟练点餐就已经忙得不可开交了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月十万円「つき」では手一杯だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月十万日元刚够开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうそれで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手一杯でパートに出る気力も体力も全然ないんだよね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊敬する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんけいする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というふうに発言「はつげん」したとします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褒めている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほめている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これなんでだと思いますｇか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つまり経済的「けいざいてき」に余裕「よゆう」があるので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥さん「おくさん」が働かなくても大丈夫っていること</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というふうに捉えて「とらえて」いるわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうふく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富裕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕福な暮らし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富裕的生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕福になる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富裕起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕福な家に生まれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生在富裕家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経済的に裕福なので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感じるわけなんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じまん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自夸，自大，骄傲，得意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は仕事なんかしなくても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家のことだけやってればいいのよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じまんしたくていったのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素直「すなお」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>という素直な気持ちでいったのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは本人にしか分かりませんけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これ受け取る「うけとる」の問題ですが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まともに受け取る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信以为真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は私の意見を間違って受け取ったらしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他好象错误地理解了我的意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういう意味に受け取ってください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请理解为那种意思; 请那样来领会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このようなことと言われるもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世の中に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よのなかに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごく溢れている「あふれている」んです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑問なんですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明らかにこれをマウンティングだというひともいるんですようね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ですから何でもかんでも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何でもかんでも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切什么都无论如何务必</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構「けっこう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その中で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日々例えば「ひびたとえば」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常生活「にちじょうせいかつ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別意味はないけど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アップしたりまあみんなしているわけじゃないですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの片方「かたほう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふつう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構豪華「ごうか」なあの高いお肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまたま運「うん」がよかっただけです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是碰巧运气好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまたま電車で見かけることがある人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶尔在电车上见过的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无言，不说话，沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むごん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無言のまま座っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不声不响（一声不吭）地坐着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一日中無言で過ごす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整天沉默地度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無言の約束を取り交わす「とりかわす」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（无形之中）达成了默契</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無言の行「くだり」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無言劇「げき」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无言戒律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これもやっぱり無言のうちにマウンティングしてきている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これが結構あらゆる場面「ばめん」で行われていることで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被害妄想「ひがいもうそう」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これに近いような人たちも結構いるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確かに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人よりも上位「じょうい」になりたいとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人よりもあの自分の方が好条件「こうじょうけん」で暮らしているとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういった自慢をしたいみたいな気持ちっいうのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰でもあるのかもしれないですけれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんか人間の生活って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別にそれの繰り返し「くりかえし」じゃないですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あからさまに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それをあからさまに言い出す「だす」のかどうかっていうだけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一，一个一个，逐一，逐个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每每，往往，容易……，好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若いものは極端「きょくたん」にはしりがちだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻人往往好走极端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この病気は子供にありがちだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな誤り「あやまり」はありがちのことだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この子は赤ん坊の時から病気がちだった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孩儿很容易得这种病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他好偷懒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのひとは留守がちです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他常不在家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那样的错误是常有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个孩子自幼多病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とかって考えがちな人って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割りと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较。比一般的还...。虽然...但是..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年の冬は割りと暖かい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在の生活にあんまり自分が満足「まんぞく」していないので</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何を言われても何か嫌味「いやみ」をいわれているように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きこえてしまうっていうのもあるんでじゃないかなって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思うんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ということで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こういうふうにいったら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていうことを個人的「こじんてき」には感じました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これ気をつけようと思っても無自覚「むじかく」ですから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかなか難しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵もなかなかやるね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかなかの腕前「うでまえ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電車がなかなかこない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話してもなかなかわかってくれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体化「ぐたいか」まではまだなかなかだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要具体实施还不是很容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使说了也不明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电车迟迟不来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺难的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人也挺强大嘛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术挺不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色々な複雑な社会になったものです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にマウンティングされたと感じるんです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおまわし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>っていうことをまあ遠回し「とおまわし」にいっているというふうに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マウンティングなのかっていわれるとちょっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は怠け「なまけ」がちだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第165回ニュース＆手を使った言葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第164回ニュース＆猫大好き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听3遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天2篇，3遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早晚吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中一天整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第163回ニュース＆日本の畳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第162回ニュース＆三つ子の魂百まで</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>番外編</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第161回ニュース＆三つ子の魂百まで</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>後編</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第160回ニュース＆三つ子の魂百まで</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前編</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不整理文档了，直接开始打印背诵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不然又开始走老路了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.10.12 重新开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点是自己输出日语，是朗读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以每天保证1-2小时的朗读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4743,6 +6989,31 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4771,7 +7042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4788,6 +7059,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5070,10 +7342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
@@ -5084,7 +7356,7 @@
     <col min="4" max="16384" width="21.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5095,7 +7367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5106,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>206</v>
       </c>
@@ -5117,7 +7389,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>340</v>
       </c>
@@ -5128,7 +7400,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>538</v>
       </c>
@@ -5139,7 +7411,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>758</v>
       </c>
@@ -5150,7 +7422,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>977</v>
       </c>
@@ -5159,6 +7431,169 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5170,17 +7605,25 @@
     <hyperlink ref="C5" location="'第170回ニュース＆守る 謎マナー'!A1" display="第170回ニュース＆守る 謎マナー"/>
     <hyperlink ref="C6" location="'第169回ニュース＆高齢者ドライバー'!A1" display="第169回ニュース＆高齢者ドライバー"/>
     <hyperlink ref="C7" location="'第168回ニュース＆サロネーゼって何 '!A1" display="第168回ニュース＆サロネーゼって何 "/>
+    <hyperlink ref="C8" location="'第167回ニュース＆最近ハマっている食べ物'!A1" display="第167回ニュース＆最近ハマっている食べ物"/>
+    <hyperlink ref="C9" location="'第166回ニュース＆マウンティングする人達'!A1" display="第166回ニュース＆マウンティングする人達"/>
+    <hyperlink ref="C10" location="'第165回ニュース＆手を使った言葉'!A1" display="第165回ニュース＆手を使った言葉"/>
+    <hyperlink ref="C11" location="'第164回ニュース＆猫大好き'!A1" display="第164回ニュース＆猫大好き"/>
+    <hyperlink ref="C12" location="'第163回ニュース＆日本の畳'!A1" display="第163回ニュース＆日本の畳"/>
+    <hyperlink ref="C13" location="'第162回ニュース＆三つ子の魂百まで・番外編'!A1" display="第162回ニュース＆三つ子の魂百まで・番外編"/>
+    <hyperlink ref="C14" location="'第161回ニュース＆三つ子の魂百まで・後編'!A1" display="第161回ニュース＆三つ子の魂百まで・後編"/>
+    <hyperlink ref="C15" location="'第160回ニュース＆三つ子の魂百まで・前編'!A1" display="第160回ニュース＆三つ子の魂百まで・前編"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
@@ -6027,7 +8470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E322"/>
@@ -7030,7 +9473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:F368"/>
@@ -8045,7 +10488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G174"/>
@@ -8905,7 +11348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:B190"/>
@@ -9514,7 +11957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:G292"/>
@@ -10420,7 +12863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -10432,4 +12875,2544 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E602"/>
+  <sheetViews>
+    <sheetView topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="I599" sqref="I599"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" s="3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B278" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B280" s="3" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282" s="3" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" s="3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B334" s="3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B336" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B338" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B340" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B342" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B344" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B346" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B348" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B350" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B352" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366" s="3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B371" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B373" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B374" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B377" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B378" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B380" s="3" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B381" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B383" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B385" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B387" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B389" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B391" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B393" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B395" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B397" s="3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B399" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B401" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B403" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B405" s="3" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B407" s="3" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B409" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B411" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B412" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B414" s="3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B415" s="3" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B417" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B418" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B420" s="3" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B422" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B424" s="3" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B426" s="3" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B428" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B430" s="3" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B432" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B435" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B437" s="3" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B439" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B441" s="3" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B443" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B445" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B447" s="3" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B448" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450" s="3" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B451" s="3" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B454" s="3" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B456" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B458" s="3" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B460" s="3" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B462" s="3" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B464" s="3" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B466" s="3" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B468" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B470" s="3" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B472" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B474" s="3" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B476" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B479" s="3" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481" s="3" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483" s="3" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484" s="3" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487" s="3" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B491" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493" s="3" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B497" s="3" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B498" s="3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B500" s="3" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B501" s="3" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B503" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B505" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B506" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B508" s="3" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B509" s="3" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B511" s="3" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B512" s="3" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B514" s="3" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B515" s="3" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B517" s="3" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B518" s="3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B520" s="3" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B522" s="3" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B524" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B526" s="3" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B528" s="3" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B530" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B532" s="3" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B534" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536" s="3" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538" s="3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B540" s="3" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B542" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B544" s="3" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551" s="3" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552" s="3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554" s="3" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555" s="3" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556" s="3" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557" s="3" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559" s="3" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560" s="3" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B561" s="3" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B562" s="3" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B563" s="3" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B566" s="3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B568" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B570" s="3" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B572" s="3" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B574" s="3" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B576" s="3" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B577" s="3" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B579" s="3" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B581" s="3" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B583" s="3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B585" s="3" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B587" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B588" s="3" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B589" s="3" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B590" s="3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B591" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B592" s="3" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B593" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B594" s="3" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B596" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B597" s="3" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B599" s="3" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B600" s="3" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B602" s="3" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F193"/>
+  <sheetViews>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C98" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C100" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C102" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C104" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C106" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C108" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C112" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C117" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C123" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C128" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C132" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C134" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C137" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C139" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C141" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C143" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C161" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C163" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C165" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C167" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>